--- a/AURES calcs/Example for demand calculations.xlsx
+++ b/AURES calcs/Example for demand calculations.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schoeniger\Documents\Github\EEG-Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geipel\Documents\GitHub\EEG-policy modelling\EEG-Tools\AURES calcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C59EFE4-019C-439D-A65B-553BD1DA11C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9975" xr2:uid="{ADC0D501-2D9F-499B-AC98-DF870173693C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9977"/>
   </bookViews>
   <sheets>
-    <sheet name="Demand" sheetId="1" r:id="rId1"/>
+    <sheet name="RE40-Trade" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{4C1BCA30-4343-4CDF-A765-1462F9608FCA}">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{6D93DAB8-374B-4F4A-8812-6BDA2B5F04F9}">
+    <comment ref="E81" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{4654DB38-81CE-43A1-9C2E-903E8899B63A}">
+    <comment ref="E89" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>Country</t>
   </si>
@@ -228,17 +227,89 @@
     <t>File: Auto_self_calc\electricity generation_auto vs main activity
 Only historic values are available --&gt; projections need to be made: Several methods for deriving a trend are possible (two are shown here)</t>
   </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI </t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>GX:File</t>
+  </si>
+  <si>
+    <t>[Comparison of Green-X results on 2030 (A2) (update 12-2020)_calculations.xlsx]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +389,25 @@
       <color indexed="81"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -403,7 +493,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -478,6 +568,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -793,919 +901,2088 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A24AF6-0DEF-42FB-AD45-B288DD4197F1}">
-  <dimension ref="A1:O27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
-    <col min="3" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.84375" customWidth="1"/>
+    <col min="2" max="2" width="27.23046875" customWidth="1"/>
+    <col min="3" max="4" width="18.3046875" customWidth="1"/>
+    <col min="5" max="5" width="18.69140625" customWidth="1"/>
+    <col min="6" max="6" width="15.84375" customWidth="1"/>
+    <col min="7" max="7" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.15234375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.3828125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.3046875" customWidth="1"/>
+    <col min="12" max="12" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.53515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.3828125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:15" ht="15" thickBot="1">
+      <c r="A1" t="str">
+        <f ca="1">MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
+        <v>RE40-Trade</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="131.6" thickBot="1">
+      <c r="A2" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D2" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="51" t="s">
+      <c r="G2" s="46"/>
+      <c r="H2" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="50" t="s">
+      <c r="I2" s="51"/>
+      <c r="J2" s="50" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="3" spans="1:15">
+      <c r="A3" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+    </row>
+    <row r="5" spans="1:15" ht="43.75">
+      <c r="A5" s="1">
         <v>2030</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5">
-        <v>591000</v>
-      </c>
-      <c r="D3" s="6">
+    <row r="6" spans="1:15">
+      <c r="B6" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f>ADDRESS(9,ROW()-1,1,1,CONCATENATE($M$6,M$7))</f>
+        <v>'94723.609765221220193.6885763377'!$E$9</v>
+      </c>
+      <c r="D6" s="6">
         <v>4.8467855840112595E-2</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E6" s="7">
         <f>0.15*2.2%</f>
         <v>3.3000000000000004E-3</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F6" s="7">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G3" s="5">
-        <f>C3*(1-(D3+E3+F3))</f>
-        <v>541493.19719849341</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G6" s="5" t="e">
+        <f>C6*(1-(D6+E6+F6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H6" s="8">
         <v>4.7759201477824864E-2</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I6" s="6">
         <v>0.14264666476951318</v>
       </c>
-      <c r="J3" s="9">
-        <f>G3*(1-I3)*1000</f>
-        <v>464250998.62274802</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11">
+      <c r="J6" s="9" t="e">
+        <f>G6*(1-I6)*1000</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11">
         <v>112560.03599990903</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M6" s="5">
         <v>94723.609765221234</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N6" s="12">
         <v>0</v>
       </c>
-      <c r="O3" s="13">
-        <f>M3*(1-N3)*1000</f>
+      <c r="O6" s="13">
+        <f>M6*(1-N6)*1000</f>
         <v>94723609.765221238</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5">
+    <row r="7" spans="1:15">
+      <c r="B7" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5">
         <v>46000</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D7" s="6">
         <v>3.1273293451191009E-2</v>
       </c>
-      <c r="E4" s="7">
-        <f t="shared" ref="E4:E6" si="0">0.15*2.2%</f>
+      <c r="E7" s="7">
+        <f t="shared" ref="E7:E9" si="0">0.15*2.2%</f>
         <v>3.3000000000000004E-3</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F7" s="7">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G4" s="5">
-        <f t="shared" ref="G4:G7" si="1">C4*(1-(D4+E4+F4))</f>
+      <c r="G7" s="5">
+        <f t="shared" ref="G7:G10" si="1">C7*(1-(D7+E7+F7))</f>
         <v>42937.628501245214</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H7" s="8">
         <v>0.15370700645561519</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I7" s="6">
         <v>0.205648248781788</v>
       </c>
-      <c r="J4" s="9">
-        <f>G4*(1-I4)*1000</f>
+      <c r="J7" s="9">
+        <f>G7*(1-I7)*1000</f>
         <v>34107580.393121146</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11">
+      <c r="K7" s="10"/>
+      <c r="L7" s="11">
         <v>26251.860083693005</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M7" s="14">
         <v>20193.688576337732</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N7" s="15">
         <v>0.25408384112846116</v>
       </c>
-      <c r="O4" s="9">
-        <f t="shared" ref="O4:O7" si="2">M4*(1-N4)*1000</f>
+      <c r="O7" s="9">
+        <f t="shared" ref="O7:O10" si="2">M7*(1-N7)*1000</f>
         <v>15062798.616309915</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5">
+    <row r="8" spans="1:15">
+      <c r="B8" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5">
         <v>135108.09375</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D8" s="6">
         <v>3.5766283618968719E-2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>3.3000000000000004E-3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F8" s="7">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>125506.46364034429</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H8" s="8">
         <v>0.33147646623570609</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I8" s="6">
         <v>0.31167862969762933</v>
       </c>
-      <c r="J5" s="9">
-        <f t="shared" ref="J5:J7" si="3">G5*(1-I5)*1000</f>
+      <c r="J8" s="9">
+        <f t="shared" ref="J8:J10" si="3">G8*(1-I8)*1000</f>
         <v>86388781.034726441</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11">
+      <c r="K8" s="10"/>
+      <c r="L8" s="11">
         <v>36169.237790494699</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M8" s="5">
         <v>34254.040284668721</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N8" s="15">
         <v>0.1809625917361391</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O8" s="9">
         <f t="shared" si="2"/>
         <v>28055340.377320953</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5">
+    <row r="9" spans="1:15">
+      <c r="B9" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5">
         <v>512876.3125</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D9" s="6">
         <v>3.4785474962704122E-2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>3.3000000000000004E-3</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F9" s="7">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G9" s="5">
         <f t="shared" si="1"/>
         <v>476931.13254131726</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H9" s="8">
         <v>9.0334847286484096E-2</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I9" s="6">
         <v>4.675076150135124E-2</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J9" s="9">
         <f t="shared" si="3"/>
         <v>454634238.91130883</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11">
+      <c r="K9" s="10"/>
+      <c r="L9" s="11">
         <v>31227.020403659244</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M9" s="5">
         <v>32841.643600009338</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N9" s="15">
         <v>0.15563001271622454</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O9" s="9">
         <f t="shared" si="2"/>
         <v>27730498.18891817</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="17">
+    <row r="10" spans="1:15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="17">
         <v>100957.8984375</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D10" s="18">
         <v>1.9E-2</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E10" s="19">
         <f>0.15*2.2%</f>
         <v>3.3000000000000004E-3</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F10" s="19">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G10" s="17">
         <f t="shared" si="1"/>
         <v>95475.884552343749</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H10" s="20">
         <v>0.36137423716275924</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I10" s="18">
         <v>0.27474583693363674</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J10" s="21">
         <f t="shared" si="3"/>
         <v>69244282.744030789</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="22">
+      <c r="K10" s="16"/>
+      <c r="L10" s="22">
         <v>10175.003530204227</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M10" s="17">
         <v>10246.381105266344</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N10" s="23">
         <v>5.5367929058275145E-2</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O10" s="21">
         <f t="shared" si="2"/>
         <v>9679060.2031259052</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="9">
-        <f>SUM(C3:C6)</f>
-        <v>1284984.40625</v>
-      </c>
-      <c r="J8" s="9">
-        <f>SUM(J3:J6)</f>
-        <v>1039381598.9619043</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="9">
-        <f>SUM(O3:O6)</f>
+    <row r="11" spans="1:15">
+      <c r="A11" s="52"/>
+      <c r="B11" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="56"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="52"/>
+      <c r="B12" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="56"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="52"/>
+      <c r="B13" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="56"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="52"/>
+      <c r="B14" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="56"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="52"/>
+      <c r="B15" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="56"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="52"/>
+      <c r="B16" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="56"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="52"/>
+      <c r="B17" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="56"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="52"/>
+      <c r="B18" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="56"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="52"/>
+      <c r="B19" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="56"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="52"/>
+      <c r="B20" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="56"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="52"/>
+      <c r="B21" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="56"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="52"/>
+      <c r="B22" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="56"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="52"/>
+      <c r="B23" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="56"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="52"/>
+      <c r="B24" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="56"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="52"/>
+      <c r="B25" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="56"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="52"/>
+      <c r="B26" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="56"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="52"/>
+      <c r="B27" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="56"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="52"/>
+      <c r="B28" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="56"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="52"/>
+      <c r="B29" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="56"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="52"/>
+      <c r="B30" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="56"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="52"/>
+      <c r="B31" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="56"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="52"/>
+      <c r="B32" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="56"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="56"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="56"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="56"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="56"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="56"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="52"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="56"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="56"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="56"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="56"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="56"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="56"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="56"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="56"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="56"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="56"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="56"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="52"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="56"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="52"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="56"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="56"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="52"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="56"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="52"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="56"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="56"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="56"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="56"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="52"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="56"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="52"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="56"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="52"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="56"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="52"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="56"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="52"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="56"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="52"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="56"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="52"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="56"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="52"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="56"/>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="52"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="56"/>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="56"/>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="52"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="56"/>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="56"/>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="52"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="56"/>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="55"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="57"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="56"/>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="56"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="57"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="56"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="52"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="52"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="56"/>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="52"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="52"/>
+      <c r="L74" s="57"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="56"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="C75" s="9">
+        <f>SUM(C6:C9)</f>
+        <v>693984.40625</v>
+      </c>
+      <c r="J75" s="9" t="e">
+        <f>SUM(J6:J9)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N75" s="6"/>
+      <c r="O75" s="9">
+        <f>SUM(O6:O9)</f>
         <v>165572246.94777027</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="77" spans="1:15">
+      <c r="A77" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B77" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C77" s="5">
         <v>121221</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="49">
-        <f>C10/C8</f>
-        <v>9.4336553354574998E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="78" spans="1:15">
+      <c r="C78" s="49">
+        <f>C77/C75</f>
+        <v>0.17467395363395458</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="51" customHeight="1">
+      <c r="A80" s="1">
         <v>2040</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="2" t="s">
+      <c r="K80" s="1"/>
+      <c r="L80" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N80" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O80" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="81" spans="1:15">
+      <c r="B81" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C81" s="24">
         <v>710000</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D81" s="25">
         <v>3.9147415976786837E-2</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E81" s="26">
         <f>0.15*2.2%</f>
         <v>3.3000000000000004E-3</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F81" s="26">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G14" s="24">
-        <f>C14*(1-(D14+E14+F14))</f>
+      <c r="G81" s="24">
+        <f>C81*(1-(D81+E81+F81))</f>
         <v>657142.3346564814</v>
       </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="25">
+      <c r="H81" s="27"/>
+      <c r="I81" s="25">
         <v>0.14264666476951318</v>
       </c>
-      <c r="J14" s="28">
-        <f>G14*(1-I14)*1000</f>
+      <c r="J81" s="28">
+        <f>G81*(1-I81)*1000</f>
         <v>563403172.33888304</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="24">
+      <c r="K81" s="29"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="24">
         <v>91564</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N81" s="31">
         <v>0</v>
       </c>
-      <c r="O14" s="32">
-        <f>M14*(1-N14)*1000</f>
+      <c r="O81" s="32">
+        <f>M81*(1-N81)*1000</f>
         <v>91564000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="82" spans="1:15">
+      <c r="B82" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C82" s="24">
         <v>55982</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D82" s="25">
         <v>2.3186245747273126E-2</v>
       </c>
-      <c r="E15" s="26">
-        <f t="shared" ref="E15:E18" si="4">0.15*2.2%</f>
+      <c r="E82" s="26">
+        <f t="shared" ref="E82:E85" si="4">0.15*2.2%</f>
         <v>3.3000000000000004E-3</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F82" s="26">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G15" s="24">
-        <f t="shared" ref="G15:G18" si="5">C15*(1-(D15+E15+F15))</f>
+      <c r="G82" s="24">
+        <f t="shared" ref="G82:G85" si="5">C82*(1-(D82+E82+F82))</f>
         <v>52707.822990576155</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="25">
+      <c r="H82" s="27"/>
+      <c r="I82" s="25">
         <v>0.205648248781788</v>
       </c>
-      <c r="J15" s="28">
-        <f>G15*(1-I15)*1000</f>
+      <c r="J82" s="28">
+        <f>G82*(1-I82)*1000</f>
         <v>41868551.495463707</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="33">
+      <c r="K82" s="29"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="33">
         <v>20978</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N82" s="34">
         <v>0.25408384112846116</v>
       </c>
-      <c r="O15" s="28">
-        <f t="shared" ref="O15:O18" si="6">M15*(1-N15)*1000</f>
+      <c r="O82" s="28">
+        <f t="shared" ref="O82:O85" si="6">M82*(1-N82)*1000</f>
         <v>15647829.180807143</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="83" spans="1:15">
+      <c r="B83" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C83" s="24">
         <v>191463</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D83" s="25">
         <v>2.9661016980102151E-2</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E83" s="26">
         <f t="shared" si="4"/>
         <v>3.3000000000000004E-3</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F83" s="26">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G83" s="24">
         <f t="shared" si="5"/>
         <v>179025.36880593869</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="25">
+      <c r="H83" s="27"/>
+      <c r="I83" s="25">
         <v>0.31167862969762933</v>
       </c>
-      <c r="J16" s="28">
-        <f t="shared" ref="J16:J18" si="7">G16*(1-I16)*1000</f>
+      <c r="J83" s="28">
+        <f t="shared" ref="J83:J85" si="7">G83*(1-I83)*1000</f>
         <v>123226987.17539102</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="24">
+      <c r="K83" s="29"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="24">
         <v>33238</v>
       </c>
-      <c r="N16" s="34">
+      <c r="N83" s="34">
         <v>0.1809625917361391</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O83" s="28">
         <f t="shared" si="6"/>
         <v>27223165.37587421</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="84" spans="1:15">
+      <c r="B84" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C84" s="24">
         <v>616146</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D84" s="25">
         <v>2.9991883387944895E-2</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E84" s="26">
         <f t="shared" si="4"/>
         <v>3.3000000000000004E-3</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F84" s="26">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G84" s="24">
         <f t="shared" si="5"/>
         <v>575916.66721805127</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="25">
+      <c r="H84" s="27"/>
+      <c r="I84" s="25">
         <v>4.675076150135124E-2</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J84" s="28">
         <f t="shared" si="7"/>
         <v>548992124.46428704</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="24">
+      <c r="K84" s="29"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="24">
         <v>35957</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N84" s="34">
         <v>0.15563001271622454</v>
       </c>
-      <c r="O17" s="28">
+      <c r="O84" s="28">
         <f t="shared" si="6"/>
         <v>30361011.632762715</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16" t="s">
+    <row r="85" spans="1:15">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C85" s="35">
         <v>147318</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D85" s="36">
         <v>1.751642915337448E-2</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E85" s="37">
         <f t="shared" si="4"/>
         <v>3.3000000000000004E-3</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F85" s="37">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G85" s="35">
         <f t="shared" si="5"/>
         <v>139537.18928998319</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="36">
+      <c r="H85" s="38"/>
+      <c r="I85" s="36">
         <v>0.27474583693363674</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J85" s="39">
         <f t="shared" si="7"/>
         <v>101199927.43513946</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="35">
+      <c r="K85" s="40"/>
+      <c r="L85" s="41"/>
+      <c r="M85" s="35">
         <v>12036</v>
       </c>
-      <c r="N18" s="42">
+      <c r="N85" s="42">
         <v>5.5367929058275145E-2</v>
       </c>
-      <c r="O18" s="39">
+      <c r="O85" s="39">
         <f t="shared" si="6"/>
         <v>11369591.605854601</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="28">
-        <f>SUM(C14:C17)</f>
+    <row r="86" spans="1:15">
+      <c r="C86" s="28">
+        <f>SUM(C81:C84)</f>
         <v>1573591</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="28">
-        <f>SUM(J14:J17)</f>
+      <c r="G86" s="43"/>
+      <c r="I86" s="43"/>
+      <c r="J86" s="28">
+        <f>SUM(J81:J84)</f>
         <v>1277490835.4740248</v>
       </c>
-      <c r="M19" s="43"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="28">
-        <f>SUM(O14:O17)</f>
+      <c r="M86" s="43"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="28">
+        <f>SUM(O81:O84)</f>
         <v>164796006.18944407</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="O20" s="43"/>
-    </row>
-    <row r="21" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="87" spans="1:15">
+      <c r="C87" s="43"/>
+      <c r="G87" s="43"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="43"/>
+      <c r="M87" s="43"/>
+      <c r="O87" s="43"/>
+    </row>
+    <row r="88" spans="1:15" ht="45" customHeight="1">
+      <c r="A88" s="1">
         <v>2050</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C88" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G88" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I88" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="44" t="s">
+      <c r="J88" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="2" t="s">
+      <c r="K88" s="1"/>
+      <c r="L88" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M21" s="44" t="s">
+      <c r="M88" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N88" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="45" t="s">
+      <c r="O88" s="45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="89" spans="1:15">
+      <c r="B89" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C89" s="24">
         <v>767000</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D89" s="25">
         <v>5.4010525659435205E-2</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E89" s="26">
         <f>0.15*2.2%</f>
         <v>3.3000000000000004E-3</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F89" s="26">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G22" s="24">
-        <f>C22*(1-(D22+E22+F22))</f>
+      <c r="G89" s="24">
+        <f>C89*(1-(D89+E89+F89))</f>
         <v>698498.82681921322</v>
       </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="25">
+      <c r="H89" s="27"/>
+      <c r="I89" s="25">
         <v>0.14264666476951318</v>
       </c>
-      <c r="J22" s="28">
-        <f>G22*(1-I22)*1000</f>
+      <c r="J89" s="28">
+        <f>G89*(1-I89)*1000</f>
         <v>598860298.82803464</v>
       </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="24">
+      <c r="K89" s="29"/>
+      <c r="L89" s="30"/>
+      <c r="M89" s="24">
         <v>71626</v>
       </c>
-      <c r="N22" s="31">
+      <c r="N89" s="31">
         <v>0</v>
       </c>
-      <c r="O22" s="32">
-        <f>M22*(1-N22)*1000</f>
+      <c r="O89" s="32">
+        <f>M89*(1-N89)*1000</f>
         <v>71626000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="90" spans="1:15">
+      <c r="B90" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C90" s="24">
         <v>72415</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D90" s="25">
         <v>2.995120110828875E-2</v>
       </c>
-      <c r="E23" s="26">
-        <f t="shared" ref="E23:E26" si="8">0.15*2.2%</f>
+      <c r="E90" s="26">
+        <f t="shared" ref="E90:E93" si="8">0.15*2.2%</f>
         <v>3.3000000000000004E-3</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F90" s="26">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G23" s="24">
-        <f t="shared" ref="G23:G26" si="9">C23*(1-(D23+E23+F23))</f>
+      <c r="G90" s="24">
+        <f t="shared" ref="G90:G93" si="9">C90*(1-(D90+E90+F90))</f>
         <v>67689.834271743268</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="25">
+      <c r="H90" s="27"/>
+      <c r="I90" s="25">
         <v>0.205648248781788</v>
       </c>
-      <c r="J23" s="28">
-        <f>G23*(1-I23)*1000</f>
+      <c r="J90" s="28">
+        <f>G90*(1-I90)*1000</f>
         <v>53769538.393429808</v>
       </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="33">
+      <c r="K90" s="29"/>
+      <c r="L90" s="30"/>
+      <c r="M90" s="33">
         <v>15519</v>
       </c>
-      <c r="N23" s="34">
+      <c r="N90" s="34">
         <v>0.25408384112846116</v>
       </c>
-      <c r="O23" s="28">
-        <f t="shared" ref="O23:O26" si="10">M23*(1-N23)*1000</f>
+      <c r="O90" s="28">
+        <f t="shared" ref="O90:O93" si="10">M90*(1-N90)*1000</f>
         <v>11575872.869527411</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="91" spans="1:15">
+      <c r="B91" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C91" s="24">
         <v>260021</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D91" s="25">
         <v>2.5228770716827054E-2</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E91" s="26">
         <f t="shared" si="8"/>
         <v>3.3000000000000004E-3</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F91" s="26">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G91" s="24">
         <f t="shared" si="9"/>
         <v>244282.2485094399</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="25">
+      <c r="H91" s="27"/>
+      <c r="I91" s="25">
         <v>0.31167862969762933</v>
       </c>
-      <c r="J24" s="28">
-        <f t="shared" ref="J24:J26" si="11">G24*(1-I24)*1000</f>
+      <c r="J91" s="28">
+        <f t="shared" ref="J91:J93" si="11">G91*(1-I91)*1000</f>
         <v>168144692.03456193</v>
       </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="24">
+      <c r="K91" s="29"/>
+      <c r="L91" s="30"/>
+      <c r="M91" s="24">
         <v>31062</v>
       </c>
-      <c r="N24" s="34">
+      <c r="N91" s="34">
         <v>0.1809625917361391</v>
       </c>
-      <c r="O24" s="28">
+      <c r="O91" s="28">
         <f t="shared" si="10"/>
         <v>25440939.975492049</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="92" spans="1:15">
+      <c r="B92" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C92" s="24">
         <v>665611</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D92" s="25">
         <v>2.5537450602217238E-2</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E92" s="26">
         <f t="shared" si="8"/>
         <v>3.3000000000000004E-3</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F92" s="26">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G92" s="24">
         <f t="shared" si="9"/>
         <v>625116.92366720759</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="25">
+      <c r="H92" s="27"/>
+      <c r="I92" s="25">
         <v>4.675076150135124E-2</v>
       </c>
-      <c r="J25" s="28">
+      <c r="J92" s="28">
         <f t="shared" si="11"/>
         <v>595892231.45838356</v>
       </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="24">
+      <c r="K92" s="29"/>
+      <c r="L92" s="30"/>
+      <c r="M92" s="24">
         <v>29550</v>
       </c>
-      <c r="N25" s="34">
+      <c r="N92" s="34">
         <v>0.15563001271622454</v>
       </c>
-      <c r="O25" s="28">
+      <c r="O92" s="28">
         <f t="shared" si="10"/>
         <v>24951133.124235563</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16" t="s">
+    <row r="93" spans="1:15">
+      <c r="A93" s="16"/>
+      <c r="B93" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C93" s="35">
         <v>219698</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D93" s="36">
         <v>1.8049409317491438E-2</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E93" s="37">
         <f t="shared" si="8"/>
         <v>3.3000000000000004E-3</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F93" s="37">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G93" s="35">
         <f t="shared" si="9"/>
         <v>207977.24147176577</v>
       </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="36">
+      <c r="H93" s="38"/>
+      <c r="I93" s="36">
         <v>0.27474583693363674</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J93" s="39">
         <f t="shared" si="11"/>
         <v>150836360.20045641</v>
       </c>
-      <c r="K26" s="40"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="35">
+      <c r="K93" s="40"/>
+      <c r="L93" s="41"/>
+      <c r="M93" s="35">
         <v>11687</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N93" s="42">
         <v>5.5367929058275145E-2</v>
       </c>
-      <c r="O26" s="39">
+      <c r="O93" s="39">
         <f t="shared" si="10"/>
         <v>11039915.01309594</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="9">
-        <f>SUM(C22:C25)</f>
+    <row r="94" spans="1:15">
+      <c r="C94" s="9">
+        <f>SUM(C89:C92)</f>
         <v>1765047</v>
       </c>
-      <c r="J27" s="9">
-        <f>SUM(J22:J25)</f>
+      <c r="J94" s="9">
+        <f>SUM(J89:J92)</f>
         <v>1416666760.7144098</v>
       </c>
-      <c r="N27" s="6"/>
-      <c r="O27" s="9">
-        <f>SUM(O22:O25)</f>
+      <c r="N94" s="6"/>
+      <c r="O94" s="9">
+        <f>SUM(O89:O92)</f>
         <v>133593945.96925503</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
